--- a/Metric.xlsx
+++ b/Metric.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,57 +494,325 @@
           <t>Test Accuracy</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Top 1 Train</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Top 1 Val Accuracy</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Top 1 Test Accuracy</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>densenet</t>
+          <t>resnet18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>run_2024-02-12_001137</t>
+          <t>run_2024-02-12_093200</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[0.33669950738916254, 0.6083743842364532, 0.7113300492610838, 0.7522167487684729, 0.7729064039408867]</t>
+          <t>[0.6899014778325123, 0.7448275862068966, 0.7677339901477832, 0.7620689655172413, 0.7608374384236454, 0.7729064039408867, 0.7756157635467981, 0.7793103448275862, 0.7992610837438424, 0.7894088669950738, 0.7935960591133004, 0.8019704433497536, 0.7933497536945813, 0.8105911330049261, 0.7931034482758621, 0.8036945812807882, 0.8024630541871921, 0.803448275862069, 0.8105911330049261, 0.8044334975369458, 0.8165024630541872, 0.8039408866995074, 0.8152709359605911, 0.8150246305418719, 0.8155172413793104, 0.8216748768472907, 0.8182266009852217, 0.8172413793103448, 0.8120689655172414, 0.8322660098522168, 0.8174876847290641, 0.8325123152709359, 0.829064039408867, 0.8342364532019705, 0.8275862068965517, 0.8325123152709359, 0.825615763546798, 0.8317733990147783, 0.8266009852216749, 0.8354679802955665, 0.8283251231527093, 0.8344827586206897, 0.8268472906403941, 0.8246305418719212, 0.8347290640394088, 0.8352216748768473, 0.833743842364532, 0.8394088669950739, 0.8248768472906404, 0.8384236453201971, 0.8354679802955665, 0.8362068965517241, 0.8374384236453202, 0.8352216748768473, 0.8325123152709359, 0.8330049261083744, 0.8369458128078818, 0.8374384236453202, 0.8376847290640395, 0.8386699507389163, 0.8433497536945813, 0.8428571428571429, 0.843103448275862, 0.8359605911330049, 0.8453201970443349, 0.8536945812807881, 0.8384236453201971, 0.8386699507389163, 0.8492610837438423, 0.8448275862068966, 0.8475369458128079, 0.8561576354679803, 0.8502463054187193, 0.8418719211822661, 0.8480295566502463, 0.8490147783251232, 0.8472906403940886, 0.8487684729064039, 0.8551724137931035, 0.8509852216748769, 0.853448275862069, 0.8519704433497537, 0.846551724137931, 0.8529556650246305, 0.8593596059113301, 0.8564039408866995, 0.8504926108374384, 0.8477832512315271, 0.8497536945812808, 0.8522167487684729, 0.8504926108374384, 0.8605911330049261, 0.8596059113300493, 0.861576354679803, 0.8559113300492611, 0.8625615763546798, 0.8573891625615764, 0.858128078817734, 0.8625615763546798, 0.8655172413793103]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[1.5071150958538055, 1.2424198724329472, 0.9972051586955786, 0.8179709408432245, 0.7084883973002434]</t>
+          <t>[1.2391712806356234, 1.12460132189623, 1.101006312163796, 1.0954759149100837, 1.096582623447959, 1.0846896213809336, 1.0838135922048975, 1.0835337324405279, 1.076168365365877, 1.077998193699544, 1.0731286218785865, 1.074567061240279, 1.072633992029926, 1.069591920206866, 1.0730325598416366, 1.0681819117914035, 1.0681606671941561, 1.0692806103098111, 1.061679927382882, 1.064795737660776, 1.0637971101783392, 1.0632474061072341, 1.058518452437844, 1.0600733024867501, 1.0583676498705947, 1.0528192567074393, 1.0601461755009147, 1.0527910679344117, 1.0594492948900058, 1.0439883677039559, 1.0526720829836027, 1.0465289917517835, 1.0457159895596542, 1.0472625569095761, 1.0480715618358822, 1.0476495900492029, 1.0458497085909204, 1.0444593138582126, 1.0472037435516597, 1.0467961505642087, 1.0480190144749137, 1.0462012018744402, 1.0490488292664055, 1.0501902844962172, 1.043035753599302, 1.040891500439231, 1.0428133466112333, 1.039782438691207, 1.0472373746511505, 1.0366211801063356, 1.0428925480429583, 1.0395248213152246, 1.041670937237777, 1.0392707985217178, 1.0408472540810352, 1.0420074359638485, 1.0371140119597668, 1.0388900163605457, 1.036007242878591, 1.03974252094434, 1.0379504753848698, 1.0378632324887074, 1.036666878095762, 1.0399259375774954, 1.0311617363156296, 1.030284832781694, 1.0323882065420076, 1.036712725800792, 1.0315288511786873, 1.0307544732657004, 1.03246277007531, 1.0265093013996214, 1.026123939536688, 1.0344323323467586, 1.0324861961086904, 1.0299329523026475, 1.0358951692506084, 1.0307922588558647, 1.0279595706406541, 1.028657726884827, 1.0286595436531727, 1.0239220083229186, 1.0292133632607348, 1.0285999803092536, 1.02558864148583, 1.0229632347587525, 1.0260329612596768, 1.031851976875245, 1.0251271668381579, 1.023762764423851, 1.0271191108883835, 1.0249706877498177, 1.0224494535153306, 1.0197851470136268, 1.0233571083526911, 1.0176710416012862, 1.0228288718095915, 1.0217157944919557, 1.0197873200018575, 1.0196997997328991]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.4096662830840046, 0.5799769850402762, 0.6421173762945915, 0.6720368239355581, 0.6731875719217492]</t>
+          <t>[0.6121979286536249, 0.6156501726121979, 0.5650172612197929, 0.6421173762945915, 0.6524741081703107, 0.6536248561565017, 0.6766398158803222, 0.6570771001150748, 0.6409666283084005, 0.6651323360184119, 0.6858457997698504, 0.6409666283084005, 0.6800920598388953, 0.6616800920598389, 0.669735327963176, 0.6570771001150748, 0.7031070195627158, 0.6720368239355581, 0.6777905638665133, 0.6559263521288837, 0.6858457997698504, 0.7284234752589183, 0.6593785960874569, 0.6812428078250863, 0.6881472957422324, 0.6915995397008056, 0.6708860759493671, 0.6881472957422324, 0.6846950517836594, 0.7077100115074798, 0.6743383199079401, 0.7077100115074798, 0.7065592635212888, 0.7019562715765247, 0.6973532796317606, 0.6881472957422324, 0.6858457997698504, 0.7077100115074798, 0.6915995397008056, 0.6651323360184119, 0.6869965477560415, 0.6731875719217492, 0.6835443037974683, 0.6685845799769851, 0.6858457997698504, 0.6869965477560415, 0.666283084004603, 0.6605293440736478, 0.6685845799769851, 0.6766398158803222, 0.6939010356731876, 0.6754890678941312, 0.6766398158803222, 0.6962025316455697, 0.669735327963176, 0.6478711162255466, 0.6789413118527042, 0.6605293440736478, 0.6812428078250863, 0.6789413118527042, 0.6789413118527042, 0.6962025316455697, 0.667433831990794, 0.6754890678941312, 0.6777905638665133, 0.6708860759493671, 0.6743383199079401, 0.6605293440736478, 0.669735327963176, 0.6915995397008056, 0.7077100115074798, 0.6685845799769851, 0.6800920598388953, 0.6915995397008056, 0.6812428078250863, 0.7019562715765247, 0.6800920598388953, 0.6605293440736478, 0.6685845799769851, 0.6789413118527042, 0.6513233601841196, 0.6869965477560415, 0.666283084004603, 0.6915995397008056, 0.6789413118527042, 0.666283084004603, 0.6605293440736478, 0.6915995397008056, 0.663981588032221, 0.6927502876869965, 0.6409666283084005, 0.667433831990794, 0.6800920598388953, 0.6858457997698504, 0.6720368239355581, 0.6869965477560415, 0.667433831990794, 0.6731875719217492, 0.6939010356731876, 0.713463751438435]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.2570311687886715</v>
+        <v>0.2606992946835014</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2570311687886715</v>
+        <v>0.2556487518971361</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>models/saved_models/densenet/run_2024-02-12_001137/densenet_best_val_loss_4.pt</t>
+          <t>models/saved_models\resnet18\run_2024-02-12_093200/resnet18_best_val_loss_29.pt</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.6731875719217492</v>
+        <v>0.7284234752589183</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>models/saved_models/densenet/run_2024-02-12_001137/densenet_full_model_3.pt</t>
+          <t>models/saved_models\resnet18\run_2024-02-12_093200/resnet18_full_model_3.pt</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.6685714285714286</v>
+        <v>0.6331428571428571</v>
       </c>
       <c r="L2" t="n">
-        <v>1.246334637914385</v>
+        <v>1.243438856942313</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.8284679802955665</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.6752819332566168</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.6331428571428571</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>enet_s</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>run_2024-02-12_095538</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[0.6733990147783251, 0.7059113300492611]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[1.2211532498907856, 1.1620225774960256]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[0.7640966628308401, 0.7652474108170311]</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.239559483</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.239559483</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>models/saved_models\enet_s\run_2024-02-12_095538/enet_s_best_val_loss_1.pt</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.765247411</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>models/saved_models\enet_s\run_2024-02-12_095538/enet_s_full_model_1.pt</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0.755428571</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.098679526</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.689655172</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.764672037</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.755428571</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>enet_s</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>run_2024-02-12_095856</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[0.6748768472906403, 0.712807881773399]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[1.2205974511274202, 1.156349539756775]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[0.762945914844649, 0.7940161104718066]</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2368772705708902</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2368772705708902</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>models/saved_models\enet_s\run_2024-02-12_095856/enet_s_best_val_loss_1.pt</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7940161104718066</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>models/saved_models\enet_s\run_2024-02-12_095856/enet_s_full_model_1.pt</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0.7668571428571429</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.092917731830052</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.6938423645320198</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.7784810126582279</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.7668571428571429</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>enet_s</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>run_2024-02-12_100104</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[0.6847290640394089, 0.7066502463054187, 0.7034482758620689, 0.7266009852216748, 0.7051724137931035, 0.7096059113300492, 0.7135467980295567, 0.7108374384236453, 0.7155172413793104, 0.7091133004926108, 0.7147783251231528, 0.719704433497537, 0.7184729064039409, 0.7169950738916256, 0.7167487684729064, 0.7086206896551724, 0.7172413793103448, 0.7049261083743842, 0.7014778325123153, 0.7194581280788177, 0.7157635467980296, 0.7145320197044335, 0.6995073891625616, 0.717487684729064, 0.7078817733990148, 0.7041871921182266, 0.7064039408866996, 0.6995073891625616, 0.7091133004926108, 0.7083743842364532, 0.698768472906404, 0.712807881773399, 0.7150246305418719, 0.7088669950738916, 0.7152709359605911, 0.7019704433497537, 0.708128078817734, 0.7004926108374384, 0.7041871921182266, 0.7098522167487685, 0.7214285714285714, 0.698768472906404, 0.7064039408866996, 0.701231527093596, 0.6990147783251232, 0.7014778325123153, 0.7145320197044335, 0.7019704433497537, 0.7059113300492611, 0.716256157635468]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[1.217896484953212, 1.1618315976435745, 1.1611905154280775, 1.1431260728460597, 1.1462773769859254, 1.1435245162858738, 1.1507141768463014, 1.1448328157109537, 1.1433194847557488, 1.1425493373645572, 1.140375198811058, 1.1396218622763326, 1.1365574579539262, 1.1342399899415143, 1.1307363078350157, 1.1340558219143724, 1.1277385227323518, 1.1429841227418795, 1.1375367256600086, 1.1351059919267188, 1.1323596098291593, 1.1318321950792327, 1.1370046401587057, 1.1324618913995939, 1.1344727127570806, 1.136880842719491, 1.139421979742726, 1.1417064868559048, 1.1311452060233889, 1.1396103036685252, 1.133829648569813, 1.133199102296604, 1.132844334042917, 1.1347521168040478, 1.1348861155547494, 1.1375656616030716, 1.1357510071101151, 1.13230804477151, 1.1323518677959292, 1.1325349751419909, 1.1252493736312146, 1.1378375160412526, 1.1422285545529343, 1.1333640400818952, 1.132276831180092, 1.1358216550406508, 1.1289489686958434, 1.13018008667653, 1.1398300373648096, 1.1294228739625827]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[0.7756041426927502, 0.7894131185270425, 0.7825086306098964, 0.7733026467203682, 0.7825086306098964, 0.761795166858458, 0.7710011507479861, 0.7744533947065593, 0.762945914844649, 0.7813578826237054, 0.7871116225546605, 0.7744533947065593, 0.762945914844649, 0.7710011507479861, 0.7686996547756041, 0.7813578826237054, 0.766398158803222, 0.7882623705408516, 0.7779056386651323, 0.7871116225546605, 0.7802071346375143, 0.7675489067894131, 0.7710011507479861, 0.760644418872267, 0.7790563866513234, 0.7790563866513234, 0.7848101265822784, 0.7871116225546605, 0.7802071346375143, 0.7756041426927502, 0.761795166858458, 0.7813578826237054, 0.7710011507479861, 0.7756041426927502, 0.762945914844649, 0.7790563866513234, 0.7733026467203682, 0.7790563866513234, 0.7640966628308401, 0.7848101265822784, 0.7779056386651323, 0.7710011507479861, 0.7698504027617952, 0.7790563866513234, 0.7744533947065593, 0.7652474108170311, 0.7779056386651323, 0.762945914844649, 0.7802071346375143, 0.7686996547756041]</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2402453394386712</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2330959110748111</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>models/saved_models\enet_s\run_2024-02-12_100104/enet_s_best_val_loss_20.pt</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.7894131185270425</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>models/saved_models\enet_s\run_2024-02-12_100104/enet_s_full_model_3.pt</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0.7611428571428571</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.093865756477628</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.7089753694581281</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.7749136939010357</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.7611428571428571</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>vgg</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>run_2024-02-12_102639</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[0.6041871921182266, 0.5633004926108375, 0.5017241379310344, 0.5529556650246306, 0.5482758620689655, 0.3472906403940887, 0.47167487684729065, 0.4839901477832512, 0.5413793103448276, 0.5408866995073892, 0.5448275862068965, 0.5376847290640394, 0.5330049261083744, 0.24704433497536946, 0.24729064039408866, 0.462807881773399, 0.4623152709359606, 0.3647783251231527, 0.38029556650246304, 0.41995073891625617, 0.4714285714285714, 0.5443349753694581, 0.5554187192118226, 0.4987684729064039, 0.5401477832512315, 0.5640394088669951, 0.5288177339901478, 0.5258620689655172, 0.5305418719211823, 0.5266009852216749, 0.5, 0.3960591133004926, 0.46576354679802956, 0.5125615763546798, 0.5399014778325123, 0.5374384236453202, 0.5263546798029557, 0.5221674876847291, 0.5399014778325123, 0.46995073891625616, 0.5455665024630542, 0.5438423645320197, 0.5347290640394089, 0.5275862068965518, 0.5219211822660098, 0.5155172413793103, 0.5586206896551724, 0.5800492610837439, 0.5812807881773399, 0.5564039408866995]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[1.2581181666982455, 1.2550708149361798, 1.3132515817176638, 1.2494915742573776, 1.3207339574032881, 1.4595185790474958, 1.3831191898330928, 1.3814377512518816, 1.280440218805328, 1.2629593113275963, 1.2749239534843626, 1.2640083774806947, 1.2467667418202077, 1.42154860496521, 1.4343628873975258, 1.2830944004959948, 1.2707900569194883, 1.2977771965537483, 1.312965941241407, 1.3034065595761997, 1.2746147715200589, 1.2655462542856772, 1.2497129947181762, 1.2774842048254538, 1.2567412365139938, 1.2414170963557687, 1.2569576642644686, 1.2531193813939734, 1.2760009990902397, 1.2793491093192513, 1.2805817605942253, 1.2889822242766853, 1.2573381352612352, 1.2712454195097675, 1.2618175219363115, 1.262206707413741, 1.266255610571133, 1.2527207971557857, 1.2490075770325548, 1.3057265769778275, 1.251717230466407, 1.2534472144494846, 1.2611076043346736, 1.2685974207450086, 1.2686953075288787, 1.2767507879752813, 1.255076288238285, 1.2447439648035004, 1.2423676562121535, 1.2431072897798434]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[0.36823935558112775, 0.40736478711162255, 0.3993095512082854, 0.5339470655926352, 0.3705408515535098, 0.31990794016110474, 0.36363636363636365, 0.5247410817031071, 0.4936708860759494, 0.525891829689298, 0.5247410817031071, 0.5074798619102416, 0.24626006904487918, 0.24626006904487918, 0.24626006904487918, 0.4188722669735328, 0.4533947065592635, 0.3578826237054085, 0.3302646720368239, 0.33601841196777904, 0.49712313003452246, 0.5063291139240507, 0.4533947065592635, 0.44188722669735325, 0.5097813578826237, 0.5270425776754891, 0.4798619102416571, 0.47295742232451093, 0.4798619102416571, 0.4798619102416571, 0.32105868814729577, 0.3291139240506329, 0.428078250863061, 0.4844649021864212, 0.48331415420023016, 0.4856156501726122, 0.4626006904487917, 0.5143843498273878, 0.41196777905638665, 0.5109321058688148, 0.5109321058688148, 0.4522439585730725, 0.5466052934407365, 0.5143843498273878, 0.5397008055235903, 0.5178365937859609, 0.522439585730725, 0.522439585730725, 0.5420023014959724, 0.5408515535097813]</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2799833844027181</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.27917256411605</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>models/saved_models\vgg\run_2024-02-12_102639/vgg_best_val_loss_42.pt</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5466052934407365</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>models/saved_models\vgg\run_2024-02-12_102639/vgg_full_model_3.pt</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5485714285714286</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.279667641435351</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5023448275862069</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.4492750287686997</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5485714285714286</v>
       </c>
     </row>
   </sheetData>

--- a/Metric.xlsx
+++ b/Metric.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,6 +815,67 @@
         <v>0.5485714285714286</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>densenet</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>run_2024-02-12_105348</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[0.5726600985221675, 0.7591133004926108, 0.7859605911330049, 0.7903940886699508, 0.8007389162561577, 0.8004926108374384, 0.80935960591133, 0.8098522167487685, 0.8201970443349754, 0.8083743842364532, 0.8219211822660099, 0.8268472906403941, 0.8204433497536946, 0.8201970443349754, 0.8325123152709359, 0.8283251231527093, 0.8342364532019705, 0.8327586206896552, 0.8275862068965517, 0.8278325123152709, 0.8359605911330049, 0.825615763546798, 0.8421182266009852, 0.8342364532019705, 0.8379310344827586, 0.8396551724137931, 0.8411330049261084, 0.8339901477832512, 0.837192118226601, 0.8426108374384237, 0.84064039408867, 0.8433497536945813, 0.8472906403940886, 0.85, 0.8529556650246305, 0.8467980295566503, 0.85, 0.8544334975369459, 0.8564039408866995, 0.8588669950738916, 0.8524630541871921, 0.8561576354679803, 0.854679802955665, 0.8527093596059113, 0.8554187192118227, 0.8623152709359606, 0.8480295566502463, 0.8630541871921182, 0.865024630541872, 0.8679802955665025]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[1.1803313507808475, 0.6803173631664337, 0.5675746488758898, 0.5372262184075484, 0.528748153349546, 0.5187205928047811, 0.49933282784589633, 0.48489724064436485, 0.4698963771889529, 0.48602776147249177, 0.460159808749289, 0.44995442795471885, 0.47153984514747077, 0.45907541217766407, 0.4454575788787031, 0.4359371084866561, 0.4370252050048723, 0.43280935451740354, 0.43244599580295445, 0.44184453304358356, 0.42928140674989057, 0.4341468535305008, 0.42645637691020966, 0.42913345781367596, 0.4179466556259028, 0.4080119867493787, 0.41816604595015366, 0.4192164209414655, 0.41364989904906807, 0.40747647128236575, 0.4003015262639429, 0.40025415054456454, 0.39228732531934274, 0.38819909072297765, 0.38718446490802166, 0.3843718440983239, 0.3835003400060136, 0.37814989451348313, 0.38819621010558814, 0.377496669494261, 0.38316540431788587, 0.3825321286682069, 0.3723956918505233, 0.37735943813023604, 0.37736330105094457, 0.355500924305653, 0.3741594933149383, 0.3577356119090178, 0.3531155914772214, 0.34148963540792465]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[0.6006904487917146, 0.7065592635212888, 0.6731875719217492, 0.6823935558112774, 0.6904487917146145, 0.7295742232451093, 0.7318757192174914, 0.7100115074798619, 0.6812428078250863, 0.713463751438435, 0.716915995397008, 0.7203682393555811, 0.6789413118527042, 0.6904487917146145, 0.6766398158803222, 0.6927502876869965, 0.6985040276179517, 0.7111622554660529, 0.6881472957422324, 0.6708860759493671, 0.7008055235903338, 0.7399309551208285, 0.6881472957422324, 0.6605293440736478, 0.6846950517836594, 0.6823935558112774, 0.666283084004603, 0.6685845799769851, 0.6513233601841196, 0.7261219792865362, 0.6766398158803222, 0.7088607594936709, 0.6881472957422324, 0.7479861910241657, 0.7226697353279632, 0.7065592635212888, 0.7054085155350979, 0.716915995397008, 0.6915995397008056, 0.6904487917146145, 0.7318757192174914, 0.7077100115074798, 0.6766398158803222, 0.6985040276179517, 0.7307249712313003, 0.7238204833141542, 0.7123130034522439, 0.7111622554660529, 0.6985040276179517, 0.7215189873417721]</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.161890532088092</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1583080756382679</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>models/saved_models\densenet\run_2024-02-12_105348/densenet_best_val_loss_33.pt</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.7479861910241657</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>models/saved_models\densenet\run_2024-02-12_105348/densenet_full_model_3.pt</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0.6868571428571428</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.960112282208034</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.829576354679803</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.6980207134637514</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.6868571428571428</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
